--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_06_end.xlsx
@@ -436,7 +436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="サイレンス"]今でこそよく見られる技術だけど、当時の考え方としては、かなり前衛的で、かつ成功した珍しい方法だった。
+    <t xml:space="preserve">[name="サイレンス"]今でこそよく見られる技術だけど、当時としてはかなり前衛的で、かつ成功した方法だった。
 </t>
   </si>
   <si>
